--- a/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
@@ -689,6 +689,9 @@
       <c r="C31" t="str">
         <v>636_干花大叶白_undefined_undefined_1stem</v>
       </c>
+      <c r="F31" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -750,7 +753,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01558106654151510101020105552030201015105303020490</v>
+        <v>01558106654151510101020105552030201015105303020491</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -690,12 +690,95 @@
         <v>636_干花大叶白_undefined_undefined_1stem</v>
       </c>
       <c r="F31" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>4</v>
+      </c>
+      <c r="C32" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F32" t="str">
         <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>5</v>
+      </c>
+      <c r="C39" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -753,7 +836,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01558106654151510101020105552030201015105303020491</v>
+        <v>015581066541515101010201055520302010151053030204910011110155201500</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
@@ -768,7 +768,7 @@
     </row>
     <row r="40">
       <c r="C40" t="str">
-        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+        <v>481_菟葵_undefined_undefined_1bunch</v>
       </c>
     </row>
     <row r="41">

--- a/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
@@ -770,6 +770,9 @@
       <c r="C40" t="str">
         <v>481_菟葵_undefined_undefined_1bunch</v>
       </c>
+      <c r="F40" t="str">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="C41" t="str">
@@ -836,7 +839,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015581066541515101010201055520302010151053030204910011110155201500</v>
+        <v>015581066541515101010201055520302010151053030204910011110155201530</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -760,28 +760,108 @@
         <v>5</v>
       </c>
       <c r="C39" t="str">
-        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
       </c>
       <c r="F39" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" t="str">
-        <v>481_菟葵_undefined_undefined_1bunch</v>
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F40" t="str">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" t="str">
-        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>506_紫罗兰香槟色_violet champagne_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>103_绣球秋蓝_Hydrangea Vintage Blue_Hydrangea L._1stem</v>
+      </c>
+      <c r="F44" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>481_菟葵_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>574_迷你菊白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>83_布拉格_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>75_爱心_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>546_绿宝石_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -839,7 +919,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015581066541515101010201055520302010151053030204910011110155201530</v>
+        <v>01558106654151510101020105552030201015105303020491001111015520101010105120515102510100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
@@ -858,6 +858,9 @@
       <c r="C51" t="str">
         <v>546_绿宝石_undefined_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -919,7 +922,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01558106654151510101020105552030201015105303020491001111015520101010105120515102510100</v>
+        <v>015581066541515101010201055520302010151053030204910011110155201010101051205151025101010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -862,9 +862,79 @@
         <v>10</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>6</v>
+      </c>
+      <c r="C52" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>480_蝴蝶洋牡丹_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>480_蝴蝶洋牡丹_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>7</v>
+      </c>
+      <c r="C58" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
+      </c>
+      <c r="F59" t="str">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L59"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -922,7 +992,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015581066541515101010201055520302010151053030204910011110155201010101051205151025101010</v>
+        <v>015581066541515101010201055520302010151053030204910011110155201010101051205151025101010101551010152021</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
@@ -679,7 +679,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="str">
-        <v>635_干花安娜白_undefined_undefined_1stem</v>
+        <v>636_干花大叶白_undefined_undefined_1stem</v>
       </c>
       <c r="F30" t="str">
         <v>49</v>

--- a/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
+++ b/DateBase/orders/Dang Nguyen_2024-10-26.xlsx
@@ -994,6 +994,9 @@
       <c r="G2" t="str">
         <v>015581066541515101010201055520302010151053030204910011110155201010101051205151025101010101551010152021</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
